--- a/data/gold_standard.xlsx
+++ b/data/gold_standard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MastersThesis\UseCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MastersThesis\UseCase\ma-use-case\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C02BC-38C5-4240-89A0-DA07F6F27DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5432F21-F01E-4FCB-917F-021419E922E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3A0255F1-C9CF-4400-BB4D-4447490A81F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Source</t>
   </si>
@@ -155,6 +155,17 @@
   </si>
   <si>
     <t>GDPR</t>
+  </si>
+  <si>
+    <t>A transfer of personal data to a third country or an international organisation may take place where the Commission has decided that the third country, a territory or one or more specified sectors within that third country, or the international organisation in question ensures an adequate level of protection. Such a transfer shall not require any specific authorisation.</t>
+  </si>
+  <si>
+    <t>GDPR Art 45 (1)</t>
+  </si>
+  <si>
+    <t>:- dynamic transfer/2. % transfer(Data, Location).
+:- ensures_adequate_level_of_protection/1. % ensures_adequate_level_of_protection(Location).
+violation(Data, Location) :- transfer(Data, Location), \+ ensures_adequate_level_of_protection(Location).</t>
   </si>
 </sst>
 </file>
@@ -624,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942F073-5A1B-4C73-B1E9-BA20EE3B78CE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +646,7 @@
     <col min="2" max="2" width="113.85546875" customWidth="1"/>
     <col min="3" max="3" width="87.140625" customWidth="1"/>
     <col min="4" max="4" width="83.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,6 +741,20 @@
       </c>
       <c r="F5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/gold_standard.xlsx
+++ b/data/gold_standard.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MastersThesis\UseCase\ma-use-case\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5432F21-F01E-4FCB-917F-021419E922E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78388316-8B84-4E27-A62E-51BCB3471D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3A0255F1-C9CF-4400-BB4D-4447490A81F1}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="38730" windowHeight="21330" xr2:uid="{3A0255F1-C9CF-4400-BB4D-4447490A81F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eval1" sheetId="2" r:id="rId2"/>
+    <sheet name="Eval2" sheetId="3" r:id="rId3"/>
+    <sheet name="Eval3" sheetId="4" r:id="rId4"/>
+    <sheet name="Eval4" sheetId="5" r:id="rId5"/>
+    <sheet name="Eval5" sheetId="6" r:id="rId6"/>
+    <sheet name="Util" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>Source</t>
   </si>
@@ -167,15 +173,334 @@
 :- ensures_adequate_level_of_protection/1. % ensures_adequate_level_of_protection(Location).
 violation(Data, Location) :- transfer(Data, Location), \+ ensures_adequate_level_of_protection(Location).</t>
   </si>
+  <si>
+    <t>GPT 5 Cost</t>
+  </si>
+  <si>
+    <t>GPT 5Generated, no feedback</t>
+  </si>
+  <si>
+    <t>:- dynamic collected/1. % collected(Data)
+:- dynamic deleted_within_30_days_after_collection_purpose_fulfilled/1. % deleted_within_30_days_after_collection_purpose_fulfilled(Data)
+:- dynamic explicitly_requested_data_retention/2. % explicitly_requested_data_retention(Person, Data)
+:- dynamic gave_explicit_consent_for_processing/2. % gave_explicit_consent_for_processing(Person, Data)
+:- dynamic individual/1. % individual(Person)
+:- dynamic personal_data/1. % personal_data(Data)
+:- dynamic processed/1. % processed(Data)
+:- dynamic processing_necessary_for_contract_performance/1. % processing_necessary_for_contract_performance(Data)
+authorized_processing(Data) :- personal_data(Data), individual(Person), gave_explicit_consent_for_processing(Person, Data).
+authorized_processing(Data) :- personal_data(Data), processing_necessary_for_contract_performance(Data).
+deletion_compliant(Data) :- deletion_required_within_30_days(Data), deleted_within_30_days_after_collection_purpose_fulfilled(Data).
+deletion_required_within_30_days(Data) :- personal_data(Data), collected(Data), \+ (individual(Person), explicitly_requested_data_retention(Person, Data)).
+processing_compliant(Data) :- processed(Data), authorized_processing(Data).
+violation(missing_timely_deletion, Data) :- personal_data(Data), collected(Data), \+ (individual(Person), explicitly_requested_data_retention(Person, Data)), \+ deleted_within_30_days_after_collection_purpose_fulfilled(Data).
+violation(unauthorized_processing, Data) :- personal_data(Data), processed(Data), \+ authorized_processing(Data).</t>
+  </si>
+  <si>
+    <t>$0.11</t>
+  </si>
+  <si>
+    <t>:- dynamic acknowledged_immediately/2. % acknowledged_immediately(S, C)
+:- dynamic acknowledged_within_2_working_days_of_receipt/2. % acknowledged_within_2_working_days_of_receipt(S, C)
+:- dynamic complaint/1. % complaint(C)
+:- dynamic complaint_logged_via_endorsed_website/2. % complaint_logged_via_endorsed_website(S, C)
+:- dynamic complaint_logged_via_suppliers_website/2. % complaint_logged_via_suppliers_website(S, C)
+:- dynamic complaint_made_by_email/1. % complaint_made_by_email(C)
+:- dynamic complaint_made_by_post/1. % complaint_made_by_post(C)
+:- dynamic complaint_made_by_telephone/1. % complaint_made_by_telephone(C)
+:- dynamic complaint_made_in_person/1. % complaint_made_in_person(C)
+:- dynamic complaint_message_recorded_without_direct_contact/1. % complaint_message_recorded_without_direct_contact(C)
+:- dynamic supplier/1. % supplier(S)
+ack_required_immediate(S, C) :- supplier(S), complaint(C), complaint_made_by_telephone(C).
+ack_required_immediate(S, C) :- supplier(S), complaint(C), complaint_made_in_person(C).
+ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_logged_via_endorsed_website(S, C).
+ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_logged_via_suppliers_website(S, C).
+ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_made_by_email(C).
+ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_made_by_post(C).
+ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_message_recorded_without_direct_contact(C).
+acknowledgement_compliant(S, C) :- supplier(S), complaint(C), ( \+ ack_required_immediate(S, C) ; acknowledged_immediately(S, C) ), ( \+ ack_required_within_2_days(S, C) ; acknowledged_within_2_working_days_of_receipt(S, C) ).
+properly_acknowledged(S, C) :- ack_required_immediate(S, C), acknowledged_immediately(S, C).
+properly_acknowledged(S, C) :- ack_required_within_2_days(S, C), acknowledged_within_2_working_days_of_receipt(S, C).
+violation(missed_2_day_acknowledgement, S, C) :- supplier(S), complaint(C), ack_required_within_2_days(S, C), \+ acknowledged_within_2_working_days_of_receipt(S, C).
+violation(missed_immediate_acknowledgement, S, C) :- supplier(S), complaint(C), ack_required_immediate(S, C), \+ acknowledged_immediately(S, C).</t>
+  </si>
+  <si>
+    <t>$0.13</t>
+  </si>
+  <si>
+    <t>:- dynamic complaint/1. % complaint(Complaint)
+:- dynamic demonstrated_courtesy/1. % demonstrated_courtesy(X)
+:- dynamic demonstrated_efficiency/1. % demonstrated_efficiency(X)
+:- dynamic demonstrated_fairness/1. % demonstrated_fairness(X)
+:- dynamic demonstrated_objectivity/1. % demonstrated_objectivity(X)
+:- dynamic first_contact/1. % first_contact(Complaint)
+:- dynamic possible_to_resolve_on_first_contact/1. % possible_to_resolve_on_first_contact(Complaint)
+:- dynamic sought_to_resolve/2. % sought_to_resolve(Supplier, Complaint)
+:- dynamic supplier/1. % supplier(X)
+compliant_first_contact_resolution(S, C) :- supplier(S), complaint(C), first_contact(C), possible_to_resolve_on_first_contact(C), sought_to_resolve(S, C).
+demonstrated_required_conduct(S) :- supplier(S), demonstrated_fairness(S), demonstrated_courtesy(S), demonstrated_objectivity(S), demonstrated_efficiency(S).
+sought_on_first_contact(S, C) :- supplier(S), complaint(C), first_contact(C), sought_to_resolve(S, C).
+violation(missing_behavior_demonstration, S) :- supplier(S), \+ (demonstrated_fairness(S), demonstrated_courtesy(S), demonstrated_objectivity(S), demonstrated_efficiency(S)).
+violation(no_seek_first_contact_where_possible, S, C) :- supplier(S), complaint(C), first_contact(C), possible_to_resolve_on_first_contact(C), \+ sought_to_resolve(S, C).</t>
+  </si>
+  <si>
+    <t>$0.10</t>
+  </si>
+  <si>
+    <t>:- dynamic competent_under_article55/1. % competent_under_article55(Authority)
+:- dynamic controller/1. % controller(Controller)
+:- dynamic feasible_to_notify_within_72_hours/2. % feasible_to_notify_within_72_hours(Controller, Breach)
+:- dynamic notification_accompanied_by_reasons_for_delay/2. % notification_accompanied_by_reasons_for_delay(Controller, Breach)
+:- dynamic notified_supervisory_authority/3. % notified_supervisory_authority(Controller, Breach, Authority)
+:- dynamic notified_within_72_hours_of_awareness/2. % notified_within_72_hours_of_awareness(Controller, Breach)
+:- dynamic notified_without_undue_delay/2. % notified_without_undue_delay(Controller, Breach)
+:- dynamic personal_data_breach/1. % personal_data_breach(Breach)
+:- dynamic supervisory_authority/1. % supervisory_authority(Authority)
+:- dynamic unlikely_to_result_in_risk_to_rights_and_freedoms_of_natural_persons/1. % unlikely_to_result_in_risk_to_rights_and_freedoms_of_natural_persons(Breach)
+compliant_notification(Controller, Breach) :- notification_required(Controller, Breach), notified_competent_authority(Controller, Breach), notified_without_undue_delay(Controller, Breach), ( (feasible_to_notify_within_72_hours(Controller, Breach), notified_within_72_hours_of_awareness(Controller, Breach)) ; (\+ feasible_to_notify_within_72_hours(Controller, Breach), ( notified_within_72_hours_of_awareness(Controller, Breach) ; (\+ notified_within_72_hours_of_awareness(Controller, Breach), notification_accompanied_by_reasons_for_delay(Controller, Breach)) ) ) ).
+notification_required(Controller, Breach) :- controller(Controller), personal_data_breach(Breach), \+ unlikely_to_result_in_risk_to_rights_and_freedoms_of_natural_persons(Breach).
+notified_competent_authority(Controller, Breach) :- notified_supervisory_authority(Controller, Breach, Authority), supervisory_authority(Authority), competent_under_article55(Authority).
+violation(feasible_but_not_notified_within_72_hours, Controller, Breach) :- notification_required(Controller, Breach), feasible_to_notify_within_72_hours(Controller, Breach), \+ notified_within_72_hours_of_awareness(Controller, Breach).
+violation(late_notification_missing_reasons, Controller, Breach) :- notification_required(Controller, Breach), notified_supervisory_authority(Controller, Breach, Authority), supervisory_authority(Authority), \+ notified_within_72_hours_of_awareness(Controller, Breach), \+ notification_accompanied_by_reasons_for_delay(Controller, Breach).
+violation(no_notification_to_competent_authority, Controller, Breach) :- notification_required(Controller, Breach), \+ notified_competent_authority(Controller, Breach).
+violation(undue_delay_in_notification, Controller, Breach) :- notification_required(Controller, Breach), notified_competent_authority(Controller, Breach), \+ notified_without_undue_delay(Controller, Breach).</t>
+  </si>
+  <si>
+    <t>Evaluation Note</t>
+  </si>
+  <si>
+    <t>Had to retry the rule extraction</t>
+  </si>
+  <si>
+    <t>$0.19</t>
+  </si>
+  <si>
+    <t>%:- dynamic specific_authorisation_required/1. % specific_authorisation_required(T); This is a derived predicate, not a fact.
+:- dynamic commission_adequacy_decision_for/1. % commission_adequacy_decision_for(Target)
+:- dynamic ensures_adequate_level_of_protection/1. % ensures_adequate_level_of_protection(Target)
+:- dynamic international_organisation/1. % international_organisation(Org)
+:- dynamic specified_sector/1. % specified_sector(Sector)
+:- dynamic territory/1. % territory(Territory)
+:- dynamic third_country/1. % third_country(Country)
+:- dynamic transfer_of_personal_data/1. % transfer_of_personal_data(T)
+:- dynamic within_third_country/2. % within_third_country(Entity, Country)
+adequate_destination(Country) :- third_country(Country), commission_adequacy_decision_for(Country), ensures_adequate_level_of_protection(Country).
+adequate_destination(Org) :- international_organisation(Org), commission_adequacy_decision_for(Org), ensures_adequate_level_of_protection(Org).
+adequate_destination(Sector) :- specified_sector(Sector), within_third_country(Sector, Country), third_country(Country), commission_adequacy_decision_for(Sector), ensures_adequate_level_of_protection(Sector).
+adequate_destination(Territory) :- territory(Territory), within_third_country(Territory, Country), third_country(Country), commission_adequacy_decision_for(Territory), ensures_adequate_level_of_protection(Territory).
+no_specific_authorisation_required_for(T, Target) :- transfer_of_personal_data(T), adequate_destination(Target).
+specific_authorisation_required(T) :- transfer_of_personal_data(T), \+ transfer_of_personal_data(T).
+transfer_may_take_place(T, Target) :- transfer_of_personal_data(T), adequate_destination(Target).
+violation(authorisation_required_for_adequate_destination, T, Target) :- transfer_of_personal_data(T), adequate_destination(Target), specific_authorisation_required(T).</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>authorized_processing(Data) :- personal_data(Data), individual(Person), gave_explicit_consent_for_processing(Person, Data).</t>
+  </si>
+  <si>
+    <t>authorized_processing(Data) :- personal_data(Data), processing_necessary_for_contract_performance(Data).</t>
+  </si>
+  <si>
+    <t>deletion_compliant(Data) :- deletion_required_within_30_days(Data), deleted_within_30_days_after_collection_purpose_fulfilled(Data).</t>
+  </si>
+  <si>
+    <t>deletion_required_within_30_days(Data) :- personal_data(Data), collected(Data), \+ (individual(Person), explicitly_requested_data_retention(Person, Data)).</t>
+  </si>
+  <si>
+    <t>processing_compliant(Data) :- processed(Data), authorized_processing(Data).</t>
+  </si>
+  <si>
+    <t>violation(missing_timely_deletion, Data) :- personal_data(Data), collected(Data), \+ (individual(Person), explicitly_requested_data_retention(Person, Data)), \+ deleted_within_30_days_after_collection_purpose_fulfilled(Data).</t>
+  </si>
+  <si>
+    <t>violation(unauthorized_processing, Data) :- personal_data(Data), processed(Data), \+ authorized_processing(Data).</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>ack_required_immediate(S, C) :- supplier(S), complaint(C), complaint_made_by_telephone(C).</t>
+  </si>
+  <si>
+    <t>ack_required_immediate(S, C) :- supplier(S), complaint(C), complaint_made_in_person(C).</t>
+  </si>
+  <si>
+    <t>ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_logged_via_endorsed_website(S, C).</t>
+  </si>
+  <si>
+    <t>ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_logged_via_suppliers_website(S, C).</t>
+  </si>
+  <si>
+    <t>ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_made_by_email(C).</t>
+  </si>
+  <si>
+    <t>ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_made_by_post(C).</t>
+  </si>
+  <si>
+    <t>ack_required_within_2_days(S, C) :- supplier(S), complaint(C), complaint_message_recorded_without_direct_contact(C).</t>
+  </si>
+  <si>
+    <t>acknowledgement_compliant(S, C) :- supplier(S), complaint(C), ( \+ ack_required_immediate(S, C) ; acknowledged_immediately(S, C) ), ( \+ ack_required_within_2_days(S, C) ; acknowledged_within_2_working_days_of_receipt(S, C) ).</t>
+  </si>
+  <si>
+    <t>properly_acknowledged(S, C) :- ack_required_immediate(S, C), acknowledged_immediately(S, C).</t>
+  </si>
+  <si>
+    <t>properly_acknowledged(S, C) :- ack_required_within_2_days(S, C), acknowledged_within_2_working_days_of_receipt(S, C).</t>
+  </si>
+  <si>
+    <t>violation(missed_2_day_acknowledgement, S, C) :- supplier(S), complaint(C), ack_required_within_2_days(S, C), \+ acknowledged_within_2_working_days_of_receipt(S, C).</t>
+  </si>
+  <si>
+    <t>violation(missed_immediate_acknowledgement, S, C) :- supplier(S), complaint(C), ack_required_immediate(S, C), \+ acknowledged_immediately(S, C).</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>compliant_first_contact_resolution(S, C) :- supplier(S), complaint(C), first_contact(C), possible_to_resolve_on_first_contact(C), sought_to_resolve(S, C).</t>
+  </si>
+  <si>
+    <t>demonstrated_required_conduct(S) :- supplier(S), demonstrated_fairness(S), demonstrated_courtesy(S), demonstrated_objectivity(S), demonstrated_efficiency(S).</t>
+  </si>
+  <si>
+    <t>sought_on_first_contact(S, C) :- supplier(S), complaint(C), first_contact(C), sought_to_resolve(S, C).</t>
+  </si>
+  <si>
+    <t>violation(missing_behavior_demonstration, S) :- supplier(S), \+ (demonstrated_fairness(S), demonstrated_courtesy(S), demonstrated_objectivity(S), demonstrated_efficiency(S)).</t>
+  </si>
+  <si>
+    <t>violation(no_seek_first_contact_where_possible, S, C) :- supplier(S), complaint(C), first_contact(C), possible_to_resolve_on_first_contact(C), \+ sought_to_resolve(S, C).</t>
+  </si>
+  <si>
+    <t>compliant_notification(Controller, Breach) :- notification_required(Controller, Breach), notified_competent_authority(Controller, Breach), notified_without_undue_delay(Controller, Breach), ( (feasible_to_notify_within_72_hours(Controller, Breach), notified_within_72_hours_of_awareness(Controller, Breach)) ; (\+ feasible_to_notify_within_72_hours(Controller, Breach), ( notified_within_72_hours_of_awareness(Controller, Breach) ; (\+ notified_within_72_hours_of_awareness(Controller, Breach), notification_accompanied_by_reasons_for_delay(Controller, Breach)) ) ) ).</t>
+  </si>
+  <si>
+    <t>notification_required(Controller, Breach) :- controller(Controller), personal_data_breach(Breach), \+ unlikely_to_result_in_risk_to_rights_and_freedoms_of_natural_persons(Breach).</t>
+  </si>
+  <si>
+    <t>notified_competent_authority(Controller, Breach) :- notified_supervisory_authority(Controller, Breach, Authority), supervisory_authority(Authority), competent_under_article55(Authority).</t>
+  </si>
+  <si>
+    <t>violation(feasible_but_not_notified_within_72_hours, Controller, Breach) :- notification_required(Controller, Breach), feasible_to_notify_within_72_hours(Controller, Breach), \+ notified_within_72_hours_of_awareness(Controller, Breach).</t>
+  </si>
+  <si>
+    <t>violation(late_notification_missing_reasons, Controller, Breach) :- notification_required(Controller, Breach), notified_supervisory_authority(Controller, Breach, Authority), supervisory_authority(Authority), \+ notified_within_72_hours_of_awareness(Controller, Breach), \+ notification_accompanied_by_reasons_for_delay(Controller, Breach).</t>
+  </si>
+  <si>
+    <t>violation(no_notification_to_competent_authority, Controller, Breach) :- notification_required(Controller, Breach), \+ notified_competent_authority(Controller, Breach).</t>
+  </si>
+  <si>
+    <t>violation(undue_delay_in_notification, Controller, Breach) :- notification_required(Controller, Breach), notified_competent_authority(Controller, Breach), \+ notified_without_undue_delay(Controller, Breach).</t>
+  </si>
+  <si>
+    <t>adequate_destination(Country) :- third_country(Country), commission_adequacy_decision_for(Country), ensures_adequate_level_of_protection(Country).</t>
+  </si>
+  <si>
+    <t>adequate_destination(Org) :- international_organisation(Org), commission_adequacy_decision_for(Org), ensures_adequate_level_of_protection(Org).</t>
+  </si>
+  <si>
+    <t>adequate_destination(Sector) :- specified_sector(Sector), within_third_country(Sector, Country), third_country(Country), commission_adequacy_decision_for(Sector), ensures_adequate_level_of_protection(Sector).</t>
+  </si>
+  <si>
+    <t>adequate_destination(Territory) :- territory(Territory), within_third_country(Territory, Country), third_country(Country), commission_adequacy_decision_for(Territory), ensures_adequate_level_of_protection(Territory).</t>
+  </si>
+  <si>
+    <t>no_specific_authorisation_required_for(T, Target) :- transfer_of_personal_data(T), adequate_destination(Target).</t>
+  </si>
+  <si>
+    <t>specific_authorisation_required(T) :- transfer_of_personal_data(T), \+ transfer_of_personal_data(T).</t>
+  </si>
+  <si>
+    <t>transfer_may_take_place(T, Target) :- transfer_of_personal_data(T), adequate_destination(Target).</t>
+  </si>
+  <si>
+    <t>violation(authorisation_required_for_adequate_destination, T, Target) :- transfer_of_personal_data(T), adequate_destination(Target), specific_authorisation_required(T).</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Score:</t>
+  </si>
+  <si>
+    <t>One may argue that this misses a violation when there is a delay but it is less than 72h. We will not count this as the GS also does not. This is debatable though</t>
+  </si>
+  <si>
+    <t>Unused and never true</t>
+  </si>
+  <si>
+    <t>Duplicate predicate of ensures level of protection and commission decided adequate</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Incorrectly formalized "does not require", also adequate desitionation is incorrect</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Final Score</t>
+  </si>
+  <si>
+    <t>The only violation predicate is so flawed, this cannot be considered a full formalization</t>
+  </si>
+  <si>
+    <t>GS1</t>
+  </si>
+  <si>
+    <t>GS2</t>
+  </si>
+  <si>
+    <t>GS3</t>
+  </si>
+  <si>
+    <t>GS4</t>
+  </si>
+  <si>
+    <t>GS5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,10 +526,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,15 +632,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80EC63A2-2AF8-488B-8251-82982F653D78}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0">
-  <autoFilter ref="A1:F1048576" xr:uid="{80EC63A2-2AF8-488B-8251-82982F653D78}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80EC63A2-2AF8-488B-8251-82982F653D78}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0">
+  <autoFilter ref="A1:I1048576" xr:uid="{80EC63A2-2AF8-488B-8251-82982F653D78}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5DA69BB1-AD86-426B-B61A-77442991121A}" name="Id"/>
     <tableColumn id="2" xr3:uid="{64B2FE51-2646-42F6-B854-2F412AD55725}" name="Text Content"/>
     <tableColumn id="3" xr3:uid="{1F117927-278B-4160-8304-BAF416FA045D}" name="Formalization"/>
     <tableColumn id="4" xr3:uid="{5D649CC2-865F-4700-89BF-22A1DB6D3689}" name="Source"/>
     <tableColumn id="5" xr3:uid="{8C79B111-0525-4822-9C55-BCF76A266BAF}" name="Note"/>
     <tableColumn id="6" xr3:uid="{D7D57346-15EB-448B-A9F9-9FC67559DE48}" name="License"/>
+    <tableColumn id="7" xr3:uid="{AC1FACF8-F876-4A6B-B4E5-637226B26937}" name="GPT 5Generated, no feedback"/>
+    <tableColumn id="8" xr3:uid="{F0769CA6-D257-4E14-AD64-8361D2E12173}" name="GPT 5 Cost"/>
+    <tableColumn id="9" xr3:uid="{7A798E2C-6406-4C86-9544-70191D033F40}" name="Evaluation Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942F073-5A1B-4C73-B1E9-BA20EE3B78CE}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,9 +978,11 @@
     <col min="3" max="3" width="87.140625" customWidth="1"/>
     <col min="4" max="4" width="83.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="113.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -668,10 +1001,19 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -685,10 +1027,16 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -702,10 +1050,16 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -722,10 +1076,16 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -742,8 +1102,17 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -756,12 +1125,975 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D648D9-413C-45DD-83B3-5B9438E1BF5B}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="190.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(B2:D8)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>AVERAGE(B2:B8)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(C2:C8)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(D2:D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E386564-E9A6-4869-A655-95EABA940B8F}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="197.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>AVERAGE(B2:D13)</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>AVERAGE(B2:B13)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C2:C13)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D2:D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBF0C07-9405-4A17-BF19-2FEE0B53C71C}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="153" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="0">AVERAGE(C2:C6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(B2:D6)</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCD5F-6059-4CB6-8E51-AAB36CEBB0CC}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="118.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>AVERAGE(B2:B8)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D10" si="0">AVERAGE(C2:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(B2:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19C2DE6-3EEF-4C24-9423-3BF52BBDE6E2}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="192.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>AVERAGE(B2:B9)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C9)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D9)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(B2:D9)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f>H12*G12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEF16D6-2497-4BD3-B4DD-D31512ED245C}">
+  <dimension ref="B1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>Eval1!F8</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="C2">
+        <f>Eval2!F14</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D2">
+        <f>Eval3!F8</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E2">
+        <f>Eval4!G10</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>Eval5!I12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.82714285714285707</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/gold_standard.xlsx
+++ b/data/gold_standard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MastersThesis\UseCase\ma-use-case\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78388316-8B84-4E27-A62E-51BCB3471D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7349EC-E2F8-41F7-B360-CACB7F581407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="38730" windowHeight="21330" xr2:uid="{3A0255F1-C9CF-4400-BB4D-4447490A81F1}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3A0255F1-C9CF-4400-BB4D-4447490A81F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>I do not understand Governatories formalism here. It seems to me like the generated output is bettr?</t>
   </si>
   <si>
-    <t>Chatper 8.2.1 (a) (ii) of Autralian Telecommunications Consumer Protections Code (Aided by the formalism in https://github.com/DasElias/LLM-DDL-NLP/blob/main/Experiment_2_3/evaluation_output_deepseek-r1.xml)</t>
-  </si>
-  <si>
     <t>:- dynamic complaint_in_person/1.
 :- dynamic complaint_by_telephone/1.
 :- dynamic complaint_by_email/1.
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>Chatper 8.2.1 (a) (ii) of Australian Telecommunications Consumer Protections Code (Aided by the formalism in https://github.com/DasElias/LLM-DDL-NLP/blob/main/Experiment_2_3/evaluation_output_deepseek-r1.xml)</t>
   </si>
 </sst>
 </file>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942F073-5A1B-4C73-B1E9-BA20EE3B78CE}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,21 +999,21 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1025,114 +1025,114 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1161,24 +1161,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1218,12 +1218,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1263,12 +1263,12 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1320,21 +1320,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1444,12 +1444,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1461,12 +1461,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1478,12 +1478,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,21 +1553,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1607,12 +1607,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,21 +1683,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1842,21 +1842,21 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1868,12 +1868,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1885,12 +1885,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1902,12 +1902,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1919,12 +1919,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1950,12 +1950,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1981,18 +1981,18 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
         <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2048,22 +2048,22 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
